--- a/result/gr75_08_simulated/details.xlsx
+++ b/result/gr75_08_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5869815349578857</v>
+        <v>0.5903170108795166</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4546.473250378194</v>
+        <v>4534.651566234569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1029102321754768</v>
+        <v>0.1022928192822754</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1029102321754768</v>
+        <v>0.1022928192822754</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1029102321754768</v>
+        <v>0.1022928192822754</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1029102321754768</v>
+        <v>0.1022928192822754</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1029102321754768</v>
+        <v>0.1022928192822754</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1029102321754768</v>
+        <v>0.1022928192822754</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1015026103005878</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1015026103005878</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1015026103005878</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1015026103005878</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1015026103005878</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1015026103005878</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1012191830209305</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.1012191830209305</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.09963959863654148</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.09963959863654148</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09988352532529476</v>
+        <v>0.09963959863654148</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09955067461806819</v>
+        <v>0.09963959863654148</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09955067461806819</v>
+        <v>0.09947085426399552</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09929187622569578</v>
+        <v>0.09906143403966021</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6540026664733887</v>
+        <v>0.6250035762786865</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4305.304995027859</v>
+        <v>4313.820966464807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1032008562191284</v>
+        <v>0.1008992431222507</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09776173565873802</v>
+        <v>0.09771982860074843</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0959150832557812</v>
+        <v>0.09771982860074843</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0959150832557812</v>
+        <v>0.0956267303660274</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09536682876115789</v>
+        <v>0.09540436493550206</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09536682876115789</v>
+        <v>0.09540436493550206</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09459074064381789</v>
+        <v>0.09540436493550206</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09459074064381789</v>
+        <v>0.09491316111620605</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09459074064381789</v>
+        <v>0.09491316111620605</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09459074064381789</v>
+        <v>0.09491316111620605</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09459074064381789</v>
+        <v>0.09475674398566873</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09459074064381789</v>
+        <v>0.09475674398566873</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6330466270446777</v>
+        <v>0.6679477691650391</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4357.448095692018</v>
+        <v>4578.302601786594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1042676465151966</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1042676465151966</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042676465151966</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1042676465151966</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1042676465151966</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1017530698312824</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1017530698312824</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1017530698312824</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1017530698312824</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1017530698312824</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09946944495685051</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.09644568798533071</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09644568798533071</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09644568798533071</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09644568798533071</v>
+        <v>0.1014459645610185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09644568798533071</v>
+        <v>0.09991233141884198</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09610553866059743</v>
+        <v>0.09991233141884198</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09610553866059743</v>
+        <v>0.09991233141884198</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09560717535462021</v>
+        <v>0.09991233141884198</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09560717535462021</v>
+        <v>0.09991233141884198</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7769613265991211</v>
+        <v>0.5937635898590088</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4509.016162417079</v>
+        <v>4329.091790177639</v>
       </c>
       <c r="F5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="G5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="H5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="I5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="J5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="K5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="L5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="M5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="N5" t="n">
-        <v>0.102526304498826</v>
+        <v>0.1032153233403684</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09996257214250417</v>
+        <v>0.09813973000568534</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09996257214250417</v>
+        <v>0.09813973000568534</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09996257214250417</v>
+        <v>0.09813973000568534</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09996257214250417</v>
+        <v>0.0972801682234703</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09893841863965119</v>
+        <v>0.09505442086116254</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09893737214979258</v>
+        <v>0.09505442086116254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09893737214979258</v>
+        <v>0.09505442086116254</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09893737214979258</v>
+        <v>0.09505442086116254</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09862096257350277</v>
+        <v>0.09505442086116254</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09856171856563505</v>
+        <v>0.09505442086116254</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09856171856563505</v>
+        <v>0.09505442086116254</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7150411605834961</v>
+        <v>0.5781099796295166</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>4652.070272742717</v>
+        <v>4406.414270384214</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.1040766230708546</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.1019601353595904</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1015373105373831</v>
+        <v>0.0984009888803431</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.09700025053487547</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.09700025053487547</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.09700025053487547</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.09700025053487547</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.09700025053487547</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.09700025053487547</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.0968461706015401</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1014979668464564</v>
+        <v>0.0968461706015401</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.101350297714283</v>
+        <v>0.09656168168390278</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8089962005615234</v>
+        <v>0.578113317489624</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4240.421614030895</v>
+        <v>4523.126998402061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1024533365924679</v>
+        <v>0.1028491964906056</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1024533365924679</v>
+        <v>0.1028491964906056</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1024533365924679</v>
+        <v>0.1028491964906056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1014043718690375</v>
+        <v>0.1028491964906056</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1014043718690375</v>
+        <v>0.1028491964906056</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09963853581770145</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09963853581770145</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09961141509239492</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09915056481122853</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.09332595738851647</v>
+        <v>0.09883678359458208</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6559734344482422</v>
+        <v>0.5781402587890625</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4356.780600121785</v>
+        <v>4471.505068528917</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1018785980578304</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1018785980578304</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1018785980578304</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1018785980578304</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1018785980578304</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0982066907692446</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0982066907692446</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0982066907692446</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0982066907692446</v>
+        <v>0.1021886739605689</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0982066907692446</v>
+        <v>0.1008359786319744</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0982066907692446</v>
+        <v>0.100356936082069</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0982066907692446</v>
+        <v>0.100356936082069</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09562968165167901</v>
+        <v>0.1001647421061883</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09562968165167901</v>
+        <v>0.09894689626702891</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09562968165167901</v>
+        <v>0.09802711358848874</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09562968165167901</v>
+        <v>0.0979719219681076</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09561708163392853</v>
+        <v>0.0979719219681076</v>
       </c>
       <c r="W8" t="n">
-        <v>0.09561708163392853</v>
+        <v>0.0978544247693687</v>
       </c>
       <c r="X8" t="n">
-        <v>0.09561708163392853</v>
+        <v>0.0978544247693687</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09559416374506402</v>
+        <v>0.09783050815845841</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6720316410064697</v>
+        <v>0.5781095027923584</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>4355.147693895888</v>
+        <v>4303.93937970039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1020984804316282</v>
+        <v>0.1000250120859812</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1020984804316282</v>
+        <v>0.1000250120859812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1020984804316282</v>
+        <v>0.1000250120859812</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1020984804316282</v>
+        <v>0.1000250120859812</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1020984804316282</v>
+        <v>0.1000250120859812</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09665528386108888</v>
+        <v>0.1000250120859812</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09665528386108888</v>
+        <v>0.1000250120859812</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09658234394745802</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09658234394745802</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09658234394745802</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09658234394745802</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09658234394745802</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09658234394745802</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09658234394745802</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09615130300327986</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09602814146380388</v>
+        <v>0.09473712315025891</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09602814146380388</v>
+        <v>0.0945641204619959</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09556233321434478</v>
+        <v>0.0945641204619959</v>
       </c>
       <c r="X9" t="n">
-        <v>0.09556233321434478</v>
+        <v>0.0945641204619959</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09556233321434478</v>
+        <v>0.0945641204619959</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6749796867370605</v>
+        <v>0.5937612056732178</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4413.868530884447</v>
+        <v>4366.907621134525</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1045858913633284</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1045858913633284</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1045858913633284</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1045858913633284</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1045858913633284</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1045858913633284</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1045858913633284</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.1001760729486956</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1017536527842138</v>
+        <v>0.09728603818758549</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09912258061626332</v>
+        <v>0.09728603818758549</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09912258061626332</v>
+        <v>0.09728603818758549</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09912258061626332</v>
+        <v>0.09728603818758549</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09912258061626332</v>
+        <v>0.09728603818758549</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09891170867177669</v>
+        <v>0.09728603818758549</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09891170867177669</v>
+        <v>0.09627327579236818</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09834834112776368</v>
+        <v>0.09627327579236818</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0974209330018434</v>
+        <v>0.09627327579236818</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09712625808715214</v>
+        <v>0.09627327579236818</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09685089454329296</v>
+        <v>0.09610536699934989</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09670698890612955</v>
+        <v>0.0957915715620765</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7390530109405518</v>
+        <v>0.5625028610229492</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>4464.781638156521</v>
+        <v>4629.566991686879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1019396547022236</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1005108075285924</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1005108075285924</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1005108075285924</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1005108075285924</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1005108075285924</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1005108075285924</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09886337083157955</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09829493559397481</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="V11" t="n">
-        <v>0.09829493559397481</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09827070631419445</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="X11" t="n">
-        <v>0.09792800856791842</v>
+        <v>0.1014739318149489</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.09769944713755399</v>
+        <v>0.1009116372648514</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_08_simulated/details.xlsx
+++ b/result/gr75_08_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5903170108795166</v>
+        <v>1.123036861419678</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4534.651566234569</v>
+        <v>2219.252388005494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1022928192822754</v>
+        <v>0.1389755513198633</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1022928192822754</v>
+        <v>0.09847495715240451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1022928192822754</v>
+        <v>0.07598346652009627</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1022928192822754</v>
+        <v>0.06932536610657877</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1022928192822754</v>
+        <v>0.06545977253632554</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1022928192822754</v>
+        <v>0.05837246123804143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1015026103005878</v>
+        <v>0.05458221121676798</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1015026103005878</v>
+        <v>0.05011680591399206</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1015026103005878</v>
+        <v>0.04906164072771402</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1015026103005878</v>
+        <v>0.04725081958330594</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1015026103005878</v>
+        <v>0.04684432312843756</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1015026103005878</v>
+        <v>0.04574533391165668</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1012191830209305</v>
+        <v>0.04574533391165668</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1012191830209305</v>
+        <v>0.04514911740432084</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09963959863654148</v>
+        <v>0.04426259194101713</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09963959863654148</v>
+        <v>0.04426259194101713</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09963959863654148</v>
+        <v>0.04378265349141725</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09963959863654148</v>
+        <v>0.04350713578155373</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09947085426399552</v>
+        <v>0.04346465259067465</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09906143403966021</v>
+        <v>0.04326028046794334</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6250035762786865</v>
+        <v>1.199986219406128</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4313.820966464807</v>
+        <v>2337.368060991624</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.1257266616179585</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.1038741844516984</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.09056011235244439</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.0801525765668521</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.06851028614192411</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.06480875698685114</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.05740606483237725</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.05448862348109607</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1008992431222507</v>
+        <v>0.05205527252207066</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09771982860074843</v>
+        <v>0.05184030110026658</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09771982860074843</v>
+        <v>0.0499548244517927</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0956267303660274</v>
+        <v>0.04868184712049774</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09540436493550206</v>
+        <v>0.04827873861326929</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09540436493550206</v>
+        <v>0.04706791988510936</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09540436493550206</v>
+        <v>0.04682467396382849</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09491316111620605</v>
+        <v>0.04625693658023868</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09491316111620605</v>
+        <v>0.04615508989898263</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09491316111620605</v>
+        <v>0.04581041677222375</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09475674398566873</v>
+        <v>0.04581041677222375</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09475674398566873</v>
+        <v>0.04556273023375484</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6679477691650391</v>
+        <v>1.375</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4578.302601786594</v>
+        <v>2252.771068130824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.1512467526428288</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.09499009377469206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.08043805932696277</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.06926126580168042</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.06453962817486562</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.06134019609932842</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.05600116185411672</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.0536923913820142</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.05129270945631941</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.04913494404738877</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.04718225232736681</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.04718225232736681</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.04646838305900025</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.04582499379796614</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1014459645610185</v>
+        <v>0.04500652688431959</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09991233141884198</v>
+        <v>0.04422385703910584</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09991233141884198</v>
+        <v>0.04422385703910584</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09991233141884198</v>
+        <v>0.04419953905642796</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09991233141884198</v>
+        <v>0.04403824477800929</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09991233141884198</v>
+        <v>0.04391366604543515</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5937635898590088</v>
+        <v>1.201002359390259</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4329.091790177639</v>
+        <v>2333.545590465834</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.1423934733437842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.1075409253115023</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.07538189070786012</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.07323341581521252</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.06833327064604522</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.06197989599098019</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.05878651184678445</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.05671742193459618</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1032153233403684</v>
+        <v>0.05465262634704669</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09813973000568534</v>
+        <v>0.05200187263809779</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09813973000568534</v>
+        <v>0.0505353039414032</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09813973000568534</v>
+        <v>0.04971022953939917</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0972801682234703</v>
+        <v>0.04865619377463083</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09505442086116254</v>
+        <v>0.04778672807836091</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09505442086116254</v>
+        <v>0.04704423263782968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09505442086116254</v>
+        <v>0.04657777666703193</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09505442086116254</v>
+        <v>0.0464464998713536</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09505442086116254</v>
+        <v>0.04597240442965984</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09505442086116254</v>
+        <v>0.04569273843267307</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09505442086116254</v>
+        <v>0.04548821813773554</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5781099796295166</v>
+        <v>1.210992336273193</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4406.414270384214</v>
+        <v>2270.640212300119</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1040766230708546</v>
+        <v>0.1443284787734793</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1019601353595904</v>
+        <v>0.1032272779495481</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.08435666994202849</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.06500711861855689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.0646258356207151</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.06056557031379652</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.05658659393690224</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.05383554837980897</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.05146342812749059</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.04965256077965503</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0984009888803431</v>
+        <v>0.04830972570964767</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09700025053487547</v>
+        <v>0.04771703752352512</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09700025053487547</v>
+        <v>0.04618812948942698</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09700025053487547</v>
+        <v>0.04549729879815737</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09700025053487547</v>
+        <v>0.04486967319451038</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09700025053487547</v>
+        <v>0.04456589430511874</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09700025053487547</v>
+        <v>0.04456589430511874</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0968461706015401</v>
+        <v>0.04441347299832551</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0968461706015401</v>
+        <v>0.04440283981202425</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09656168168390278</v>
+        <v>0.04426199244249743</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.578113317489624</v>
+        <v>1.224040985107422</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4523.126998402061</v>
+        <v>2189.848677939339</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1028491964906056</v>
+        <v>0.1197607356035581</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1028491964906056</v>
+        <v>0.1015236962583557</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1028491964906056</v>
+        <v>0.07777786296457963</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1028491964906056</v>
+        <v>0.06614975410877255</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1028491964906056</v>
+        <v>0.06606662102624862</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09963853581770145</v>
+        <v>0.05806128172266541</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09963853581770145</v>
+        <v>0.05327493690625272</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.05173417330031371</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.05023942492992341</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.04841136220950151</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.0464429508175998</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.04602550320020914</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.04451892323800887</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.04357704162935757</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.04339369745673335</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.04322448460494735</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.0431534866039608</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09961141509239492</v>
+        <v>0.04288978337529514</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09915056481122853</v>
+        <v>0.04271844458656645</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.09883678359458208</v>
+        <v>0.04268710873176098</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5781402587890625</v>
+        <v>1.131015539169312</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4471.505068528917</v>
+        <v>2250.797205590547</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.1286959795927647</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.0977665817028233</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.08059309783373239</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.07101441649348225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.06372399223194741</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.05889815534424102</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.05577744783027858</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.05352636850654065</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1021886739605689</v>
+        <v>0.0519981608777314</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1008359786319744</v>
+        <v>0.04959292942520523</v>
       </c>
       <c r="P8" t="n">
-        <v>0.100356936082069</v>
+        <v>0.0488710827049555</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.100356936082069</v>
+        <v>0.0472368796250404</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1001647421061883</v>
+        <v>0.04645319620514955</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09894689626702891</v>
+        <v>0.04583963097529657</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09802711358848874</v>
+        <v>0.0452765267161289</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0979719219681076</v>
+        <v>0.04455797305124105</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0979719219681076</v>
+        <v>0.04455797305124105</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0978544247693687</v>
+        <v>0.0442198084711523</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0978544247693687</v>
+        <v>0.04414803310554626</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09783050815845841</v>
+        <v>0.04387518919279817</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5781095027923584</v>
+        <v>1.225028514862061</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4303.93937970039</v>
+        <v>2174.861587870793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1000250120859812</v>
+        <v>0.1440219836491839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1000250120859812</v>
+        <v>0.08769392331245404</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1000250120859812</v>
+        <v>0.08173941032139932</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1000250120859812</v>
+        <v>0.06995847025039584</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1000250120859812</v>
+        <v>0.06523278814191104</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1000250120859812</v>
+        <v>0.05724987647205408</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1000250120859812</v>
+        <v>0.05413875727052933</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.05080358988782813</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04857006722022774</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04714881360254937</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04655628504262817</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04504145733464982</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04483455068931814</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04356978484037112</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04337210665841894</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09473712315025891</v>
+        <v>0.04335465133373347</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0945641204619959</v>
+        <v>0.04289151180333093</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0945641204619959</v>
+        <v>0.04283855131309471</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0945641204619959</v>
+        <v>0.04246047862279198</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0945641204619959</v>
+        <v>0.04239496272652618</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5937612056732178</v>
+        <v>1.148012399673462</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4366.907621134525</v>
+        <v>2310.580258079313</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1045858913633284</v>
+        <v>0.1294850815401244</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1045858913633284</v>
+        <v>0.10277947172215</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1045858913633284</v>
+        <v>0.08177881137298992</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1045858913633284</v>
+        <v>0.07476636083785003</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1045858913633284</v>
+        <v>0.0684105838079693</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1045858913633284</v>
+        <v>0.06490523580969185</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1045858913633284</v>
+        <v>0.06020386807853812</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1001760729486956</v>
+        <v>0.05545533534790918</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09728603818758549</v>
+        <v>0.05275036894998396</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09728603818758549</v>
+        <v>0.05074568728088612</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09728603818758549</v>
+        <v>0.04990185711241785</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09728603818758549</v>
+        <v>0.04841707562471678</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09728603818758549</v>
+        <v>0.04760329344006436</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09728603818758549</v>
+        <v>0.04645888451947912</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09627327579236818</v>
+        <v>0.04637280547695979</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09627327579236818</v>
+        <v>0.04578080689349801</v>
       </c>
       <c r="V10" t="n">
-        <v>0.09627327579236818</v>
+        <v>0.04576673919761902</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09627327579236818</v>
+        <v>0.04543614859818033</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09610536699934989</v>
+        <v>0.04504055083975268</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0957915715620765</v>
+        <v>0.04504055083975268</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5625028610229492</v>
+        <v>1.304998874664307</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4629.566991686879</v>
+        <v>2311.784103735229</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.1336344263736033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.1011439233109617</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.08304347712868669</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.07073236975819963</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.06343784245802858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.06125771008239581</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.05705560883509756</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.05395228005449909</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.05233196665173879</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04934077563711561</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04934077563711561</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.0477060610864339</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04753298000287777</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04725379448153589</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04712633929478422</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04617653456264369</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04572082181859721</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04546716810525685</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1014739318149489</v>
+        <v>0.04506401761667112</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1009116372648514</v>
+        <v>0.04506401761667112</v>
       </c>
     </row>
   </sheetData>
